--- a/Сети и телекомуникации/2/Лаба_2.xlsx
+++ b/Сети и телекомуникации/2/Лаба_2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vetek\Desktop\study\Сети и телекомуникации\2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vetek\Desktop\study(git_repo)\Сети и телекомуникации\2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085AF072-1E08-48F9-AEC9-A145CA180CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C66C3A-8286-4F31-9340-A5AEA75A3221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -304,26 +304,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -332,8 +312,130 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Общие капитальные вложения 1</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$D$8:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$D$10:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1184000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2336000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4256000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19616000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38816000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-E777-4378-B938-0E677B7CD17B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Общие капитальные вложения 2</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$D$8:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$D$11:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>930000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>930000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>930000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>930000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>930000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-E777-4378-B938-0E677B7CD17B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="2"/>
           <c:tx>
             <c:v>Общие капитальные вложения 1</c:v>
           </c:tx>
@@ -413,13 +515,13 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3A23-4F09-86E5-F6C8B19CBDF5}"/>
+              <c16:uniqueId val="{00000002-E777-4378-B938-0E677B7CD17B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="3"/>
           <c:tx>
             <c:v>Общие капитальные вложения 2</c:v>
           </c:tx>
@@ -499,12 +601,11 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3A23-4F09-86E5-F6C8B19CBDF5}"/>
+              <c16:uniqueId val="{00000004-E777-4378-B938-0E677B7CD17B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -536,6 +637,45 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="1"/>
+                  <a:t>N(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" b="1"/>
+                  <a:t>Кол-ВО Каналов)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -621,6 +761,46 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="1"/>
+                  <a:t>ДЕНЕЖНЫЕ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="1" baseline="0"/>
+                  <a:t> СТРЕДСТВА(У.Е)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1400" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -662,40 +842,12 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="lt1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -993,6 +1145,72 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1" i="0" cap="all" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>N(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="1" i="0" cap="all" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Кол-ВО Каналов)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="700">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1055,6 +1273,74 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="1" i="0" cap="all" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>ДЕНЕЖНЫЕ СТРЕДСТВА(У.Е)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="700">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.5197634993628943E-2"/>
+              <c:y val="0.22933560116696472"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1341,6 +1627,80 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1" i="0" cap="all" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>N(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="1" i="0" cap="all" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Кол-ВО Каналов)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="700">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.38256174943694754"/>
+              <c:y val="0.8601510331864276"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1403,6 +1763,74 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="1" i="0" cap="all" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>ДЕНЕЖНЫЕ СТРЕДСТВА(У.Е)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="700">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.2272193385772365E-2"/>
+              <c:y val="0.10344190046373937"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1689,6 +2117,72 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1" i="0" cap="all" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>N(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="1" i="0" cap="all" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Кол-ВО Каналов)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="700">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1751,6 +2245,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="1" i="0" cap="all" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>ДЕНЕЖНЫЕ СТРЕДСТВА(У.Е)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="700">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1964,46 +2518,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
   <cs:axisTitle>
@@ -3564,540 +4078,20 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="800" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>107577</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25934</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>89648</xdr:rowOff>
+      <xdr:rowOff>35220</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>519472</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>124865</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>67235</xdr:rowOff>
+      <xdr:rowOff>12807</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4120,8 +4114,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="107577" y="3518648"/>
-          <a:ext cx="6380629" cy="358587"/>
+          <a:off x="747113" y="4607220"/>
+          <a:ext cx="6385431" cy="358587"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4214,8 +4208,8 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>352745</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>37940</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>78442</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4282,16 +4276,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>123265</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28015</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>35299</xdr:rowOff>
+      <xdr:rowOff>8085</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>519472</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>111258</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>158563</xdr:rowOff>
+      <xdr:rowOff>131349</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4314,7 +4308,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="123265" y="4988299"/>
+          <a:off x="749194" y="4961085"/>
           <a:ext cx="6369743" cy="313764"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4597,8 +4591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B4:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4744,7 +4738,7 @@
         <v>930000</v>
       </c>
       <c r="E11" s="7">
-        <f t="shared" ref="E11:H11" si="1">(($D$5+$D$6)*$D$4)+(2*$D$7)</f>
+        <f t="shared" ref="E11:G11" si="1">(($D$5+$D$6)*$D$4)+(2*$D$7)</f>
         <v>930000</v>
       </c>
       <c r="F11" s="7">
